--- a/IoTProposedPlan.xlsx
+++ b/IoTProposedPlan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
   <si>
     <t>Plan</t>
   </si>
@@ -80,16 +80,6 @@
     <t>wait for approval</t>
   </si>
   <si>
-    <t>Online VPS2 DB Communicator</t>
-  </si>
-  <si>
-    <t>a thread that provides write/read functions with online database VPS2</t>
-  </si>
-  <si>
-    <t>_Basic Function: Write/Read
-_Code + Diagram</t>
-  </si>
-  <si>
     <t>Auto UHV2 PVI Collector</t>
   </si>
   <si>
@@ -139,12 +129,6 @@
   </si>
   <si>
     <t>18h</t>
-  </si>
-  <si>
-    <t>Logger</t>
-  </si>
-  <si>
-    <t>an excel log recording program activities at running time</t>
   </si>
   <si>
     <t>_Code + Example</t>
@@ -174,33 +158,6 @@
   </si>
   <si>
     <t>Tâm: 1h</t>
-  </si>
-  <si>
-    <t>learn and test qsql: 8h
-meeting with team: 3h
-raw state diagram: 5h
-raw code: 5h
-raw test + revise: 5h
-tolerance: 5h</t>
-  </si>
-  <si>
-    <t>Tâm: 3h
-Đăng: 3h
-Đăng code
-Đăng database</t>
-  </si>
-  <si>
-    <t>work with Đăng: 8h
-meeting with team: 3h
-raw state diagram: 5h
-raw code: 5h
-raw test + revise: 5h
-tolerance: 5h</t>
-  </si>
-  <si>
-    <t>Tâm: 3h
-Đăng: 11h
-Đăng code</t>
   </si>
   <si>
     <t>raw state diagram: 3h
@@ -240,18 +197,166 @@
 tolerance: 5h</t>
   </si>
   <si>
-    <t>Tâm: 15h
-Đăng: 14h</t>
-  </si>
-  <si>
     <t>21h</t>
+  </si>
+  <si>
+    <t>Tâm: 6h
+Đăng: 14h
+Đăng code
+Đăng database</t>
+  </si>
+  <si>
+    <t>learn and test qsql: 8h
+work with Đăng : 8h
+meeting with team: 6h
+raw state diagram: 5h
+raw code: 5h
+raw test + revise: 5h
+tolerance: 5h</t>
+  </si>
+  <si>
+    <t>42h</t>
+  </si>
+  <si>
+    <t>Realization</t>
+  </si>
+  <si>
+    <t>test and debug with simulators</t>
+  </si>
+  <si>
+    <t>_Deployable Program</t>
+  </si>
+  <si>
+    <t>Tâm: 17h
+Đăng: 22h</t>
+  </si>
+  <si>
+    <t>intensive test and debug with Đăng: 8h
+team meeting: 2h
+tolerance: 10h</t>
+  </si>
+  <si>
+    <t>Tâm: 2h
+Đăng: 8h
+12 x UHV2Simulators
+12 x UHV4Simulators
+6 x SDCSFullSimulators
+VPS</t>
+  </si>
+  <si>
+    <t>UHV2Worker</t>
+  </si>
+  <si>
+    <t>a thread that communicate with UHV2 pump, based on BinaryProtocol via RS485 Serial Interface</t>
+  </si>
+  <si>
+    <t>Excel Debugger</t>
+  </si>
+  <si>
+    <t>an excel log analysing program activities</t>
+  </si>
+  <si>
+    <t>FSM design: 27h
+Threading: 10h
+State Diagram + Code + Test + Revise: 17h</t>
+  </si>
+  <si>
+    <t>FSM model design: 20h
+effective threading techniques: 8h
+raw state diagram: 7h
+raw code: 7h
+raw test + revise: 11h
+tolerance: 5h</t>
+  </si>
+  <si>
+    <t>58h</t>
+  </si>
+  <si>
+    <t>completed on 6/14</t>
+  </si>
+  <si>
+    <t>CanBusWorker</t>
+  </si>
+  <si>
+    <t>a thread that communicate with Can bus, based on CanProtocol</t>
+  </si>
+  <si>
+    <t>raw state diagram: 7h
+raw code: 8h
+raw test + revise: 5h
+tolerance: 5h</t>
+  </si>
+  <si>
+    <t>completed on 6/21</t>
+  </si>
+  <si>
+    <t>State Diagram + Code + Test + Revise: 34h</t>
+  </si>
+  <si>
+    <t>anLogger</t>
+  </si>
+  <si>
+    <t>25h</t>
+  </si>
+  <si>
+    <t>a macro that supports very detailed debug and writes log file, on both WinOS and LinuxOS</t>
+  </si>
+  <si>
+    <t>logic design: 8h
+raw code: 5h
+raw test + revise: 7h
+tolerance: 5h</t>
+  </si>
+  <si>
+    <t>_Code</t>
+  </si>
+  <si>
+    <t>completed on 6/27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Code  </t>
+  </si>
+  <si>
+    <t>Code + Test + Revise: 31h</t>
+  </si>
+  <si>
+    <t>AutoUpdatePiSG</t>
+  </si>
+  <si>
+    <t>a program that add self-update feature to the project</t>
+  </si>
+  <si>
+    <t>raw flow chart: 8h
+raw code: 8h
+raw test + revise: 24h
+installer code: 8h
+document: 8h
+tolerance:8h</t>
+  </si>
+  <si>
+    <t>_Code + Deployable Program + Installer + Document</t>
+  </si>
+  <si>
+    <t>64h</t>
+  </si>
+  <si>
+    <t>70h</t>
+  </si>
+  <si>
+    <t>completed before Jun</t>
+  </si>
+  <si>
+    <t>189h</t>
+  </si>
+  <si>
+    <t>172h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,8 +398,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,8 +448,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -538,6 +656,43 @@
         <color indexed="64"/>
       </top>
       <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -549,8 +704,53 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -560,9 +760,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -578,49 +775,25 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -930,409 +1103,579 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="31" style="17" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="13" style="17" customWidth="1"/>
-    <col min="7" max="8" width="16.42578125" style="17" customWidth="1"/>
-    <col min="9" max="12" width="16.140625" style="17" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="17" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13" style="6" customWidth="1"/>
+    <col min="7" max="8" width="16.42578125" style="6" customWidth="1"/>
+    <col min="9" max="11" width="16.140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="1" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="5" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="11"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="12" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="26">
+        <v>42891</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="26">
+        <v>42901</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="26">
+        <v>42908</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="27"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="30"/>
+    </row>
+    <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="J17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="15" t="s">
+      <c r="I18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-    </row>
-    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="17" t="s">
+    </row>
+    <row r="19" spans="1:13" s="12" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="15" t="s">
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-    </row>
-    <row r="14" spans="1:13" s="24" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="23"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
+  <mergeCells count="18">
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J1:M1"/>
@@ -1344,7 +1687,11 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="133" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IoTProposedPlan.xlsx
+++ b/IoTProposedPlan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="97">
   <si>
     <t>Plan</t>
   </si>
@@ -147,11 +147,6 @@
   </si>
   <si>
     <t>EDCTU Software</t>
-  </si>
-  <si>
-    <t>meeting with Tâm: 1h
-raw work: 10h
-tolerance: 10h</t>
   </si>
   <si>
     <t>200h</t>
@@ -195,9 +190,6 @@
 raw code: 8h
 raw test + revise: 5h
 tolerance: 5h</t>
-  </si>
-  <si>
-    <t>21h</t>
   </si>
   <si>
     <t>Tâm: 6h
@@ -231,11 +223,6 @@
 Đăng: 22h</t>
   </si>
   <si>
-    <t>intensive test and debug with Đăng: 8h
-team meeting: 2h
-tolerance: 10h</t>
-  </si>
-  <si>
     <t>Tâm: 2h
 Đăng: 8h
 12 x UHV2Simulators
@@ -350,6 +337,32 @@
   </si>
   <si>
     <t>172h</t>
+  </si>
+  <si>
+    <t>intensive test and debug with Đăng: 8h
+team meeting: 2h
+tolerance: 10h</t>
+  </si>
+  <si>
+    <t>meeting with Tâm: 1h
+raw work: 5h
+tolerance: 5h</t>
+  </si>
+  <si>
+    <t>TestGui</t>
+  </si>
+  <si>
+    <t>11h</t>
+  </si>
+  <si>
+    <t>a thread that allows test and debug</t>
+  </si>
+  <si>
+    <t>raw code: 5h
+tolerance: 5h</t>
+  </si>
+  <si>
+    <t>10h</t>
   </si>
 </sst>
 </file>
@@ -455,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -601,17 +614,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -704,7 +706,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -727,7 +729,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -736,21 +738,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -768,33 +794,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1103,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,98 +1124,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="16" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="19" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="19" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="15"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1225,161 +1224,161 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="F5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="J5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="25" t="s">
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25" t="s">
+      <c r="G6" s="14">
+        <v>42891</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="14">
+        <v>42901</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="14">
+        <v>42908</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="M5" s="25"/>
-    </row>
-    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="26">
-        <v>42891</v>
-      </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="M6" s="25"/>
-    </row>
-    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="26">
-        <v>42901</v>
-      </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="26">
-        <v>42908</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" s="25"/>
-    </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="M9" s="30"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1389,10 +1388,10 @@
         <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>17</v>
@@ -1403,7 +1402,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>20</v>
@@ -1420,7 +1419,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>23</v>
@@ -1443,7 +1442,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>23</v>
@@ -1466,7 +1465,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>30</v>
@@ -1492,7 +1491,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>34</v>
@@ -1518,7 +1517,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>23</v>
@@ -1533,129 +1532,137 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="11" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="D20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="8" t="s">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="12" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="11"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1670,18 +1677,33 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:M2"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:M2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:D3"/>
@@ -1691,7 +1713,7 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="133" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>